--- a/caracterizacion/prueba fuerzaMotor.xlsx
+++ b/caracterizacion/prueba fuerzaMotor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d97dfd61da619a5/UNAL FORE/SEMESTRE 9/TECNICAS DE CONTROL/PROYECTO/eolic-balancing-cs/caracterizacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="8_{08C8DD16-1021-4D32-87E2-1CEEAAB76AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8D4F94E-CB92-4E0A-BDA4-14E62F05BC87}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="8_{08C8DD16-1021-4D32-87E2-1CEEAAB76AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CC08176-76E0-4F59-B6CA-CEC7033AD5E9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{01D8CC23-8532-44AD-A55E-5C36536F1D45}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000.E+00"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
@@ -208,7 +208,9 @@
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{C8D65607-B360-4241-A676-C2E242044627}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
